--- a/ignore/Code Builder (Aurora Portal).xlsx
+++ b/ignore/Code Builder (Aurora Portal).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\PlatformIO\Projects\AuroraPortal\ignore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253BAE8E-DD59-4C49-B734-136A733F17DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB50DE-0561-4F19-9287-1158607E195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="5" xr2:uid="{697F6BFC-02A0-47BE-BADA-81B73B904B8B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="6" xr2:uid="{697F6BFC-02A0-47BE-BADA-81B73B904B8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="paramsUsed" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet7" sheetId="9" r:id="rId6"/>
-    <sheet name="Synaptide" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId8"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="10" r:id="rId7"/>
+    <sheet name="Synaptide" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="293">
   <si>
     <t>cFxIndex = preset.pFxIndex;</t>
   </si>
@@ -869,6 +870,60 @@
   </si>
   <si>
     <t>X(float, CustomA, 1.0f) \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   X(bool, AngleFreezeX, false) \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   X(bool, AngleFreezeY, false) \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   X(bool, AngleFreezeZ, false) \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   X(bool, RotateLinearX, false) \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   X(bool, RotateLinearY, false) \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   X(bool, RotateLinearZ, false) \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   X(bool, RotateRadialX, false) \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   X(bool, RotateRadialY, false) \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   X(bool, RotateRadialZ, false)</t>
+  </si>
+  <si>
+    <t>if (receivedID == "cx11") {mappingOverride = receivedValue;};</t>
+  </si>
+  <si>
+    <t>if (receivedID == "cx</t>
+  </si>
+  <si>
+    <t>") {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = receivedValue;};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;control-checkbox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    label="Enable Audio" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    data-my-number="12"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    checked&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;/control-checkbox&gt;</t>
   </si>
 </sst>
 </file>
@@ -2139,6 +2194,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450D27FE-F79E-49BB-8D9E-631FCD809E99}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7963B3-4A35-44C9-8B46-BC2F718391DD}">
   <dimension ref="E5:Q437"/>
@@ -8970,7 +9037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DECC78-221A-4681-85C1-828B806BC167}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:I20"/>
     </sheetView>
   </sheetViews>
@@ -9331,6 +9398,389 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B95852-14F0-4CF2-B205-EF42FE227870}">
+  <dimension ref="D5:T17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
+    <col min="12" max="12" width="21.9296875" customWidth="1"/>
+    <col min="13" max="13" width="34.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="L5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="L7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M7" t="s">
+        <v>286</v>
+      </c>
+      <c r="N7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8" t="str">
+        <f>_xlfn.TEXTAFTER(D8,"ool, ")</f>
+        <v>AngleFreezeX, false) \</v>
+      </c>
+      <c r="I8" t="str">
+        <f>_xlfn.TEXTBEFORE(H8,",")</f>
+        <v>AngleFreezeX</v>
+      </c>
+      <c r="J8" t="str">
+        <f>"c"&amp;I8</f>
+        <v>cAngleFreezeX</v>
+      </c>
+      <c r="L8" t="str">
+        <f>$L$7&amp;G8</f>
+        <v>if (receivedID == "cx20</v>
+      </c>
+      <c r="M8" t="str">
+        <f>L8&amp;$M$7&amp;J8</f>
+        <v>if (receivedID == "cx20") {cAngleFreezeX</v>
+      </c>
+      <c r="N8" t="str">
+        <f>M8&amp;$N$7</f>
+        <v>if (receivedID == "cx20") {cAngleFreezeX = receivedValue;};</v>
+      </c>
+      <c r="T8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9">
+        <f>G8+1</f>
+        <v>21</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" ref="H9:H17" si="0">_xlfn.TEXTAFTER(D9,"ool, ")</f>
+        <v>AngleFreezeX, false) \</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" ref="I9:I17" si="1">_xlfn.TEXTBEFORE(H9,",")</f>
+        <v>AngleFreezeX</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:J17" si="2">"c"&amp;I9</f>
+        <v>cAngleFreezeX</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" ref="L9:L17" si="3">$L$7&amp;G9</f>
+        <v>if (receivedID == "cx21</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" ref="M9:M17" si="4">L9&amp;$M$7&amp;J9</f>
+        <v>if (receivedID == "cx21") {cAngleFreezeX</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" ref="N9:N17" si="5">M9&amp;$N$7</f>
+        <v>if (receivedID == "cx21") {cAngleFreezeX = receivedValue;};</v>
+      </c>
+      <c r="T9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G17" si="6">G9+1</f>
+        <v>22</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>AngleFreezeY, false) \</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>AngleFreezeY</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>cAngleFreezeY</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="3"/>
+        <v>if (receivedID == "cx22</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="4"/>
+        <v>if (receivedID == "cx22") {cAngleFreezeY</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="5"/>
+        <v>if (receivedID == "cx22") {cAngleFreezeY = receivedValue;};</v>
+      </c>
+      <c r="T10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>AngleFreezeZ, false) \</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>AngleFreezeZ</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>cAngleFreezeZ</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="3"/>
+        <v>if (receivedID == "cx23</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="4"/>
+        <v>if (receivedID == "cx23") {cAngleFreezeZ</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="5"/>
+        <v>if (receivedID == "cx23") {cAngleFreezeZ = receivedValue;};</v>
+      </c>
+      <c r="T11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>RotateLinearX, false) \</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>RotateLinearX</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>cRotateLinearX</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="3"/>
+        <v>if (receivedID == "cx24</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="4"/>
+        <v>if (receivedID == "cx24") {cRotateLinearX</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="5"/>
+        <v>if (receivedID == "cx24") {cRotateLinearX = receivedValue;};</v>
+      </c>
+      <c r="T12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>RotateLinearY, false) \</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>RotateLinearY</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>cRotateLinearY</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="3"/>
+        <v>if (receivedID == "cx25</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="4"/>
+        <v>if (receivedID == "cx25") {cRotateLinearY</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="5"/>
+        <v>if (receivedID == "cx25") {cRotateLinearY = receivedValue;};</v>
+      </c>
+    </row>
+    <row r="14" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>RotateLinearZ, false) \</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>RotateLinearZ</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>cRotateLinearZ</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="3"/>
+        <v>if (receivedID == "cx26</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="4"/>
+        <v>if (receivedID == "cx26") {cRotateLinearZ</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="5"/>
+        <v>if (receivedID == "cx26") {cRotateLinearZ = receivedValue;};</v>
+      </c>
+    </row>
+    <row r="15" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>RotateRadialX, false) \</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>RotateRadialX</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>cRotateRadialX</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="3"/>
+        <v>if (receivedID == "cx27</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="4"/>
+        <v>if (receivedID == "cx27") {cRotateRadialX</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="5"/>
+        <v>if (receivedID == "cx27") {cRotateRadialX = receivedValue;};</v>
+      </c>
+    </row>
+    <row r="16" spans="4:20" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>RotateRadialY, false) \</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>RotateRadialY</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>cRotateRadialY</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="3"/>
+        <v>if (receivedID == "cx28</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="4"/>
+        <v>if (receivedID == "cx28") {cRotateRadialY</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="5"/>
+        <v>if (receivedID == "cx28") {cRotateRadialY = receivedValue;};</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>RotateRadialZ, false)</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>RotateRadialZ</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>cRotateRadialZ</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="3"/>
+        <v>if (receivedID == "cx29</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="4"/>
+        <v>if (receivedID == "cx29") {cRotateRadialZ</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="5"/>
+        <v>if (receivedID == "cx29") {cRotateRadialZ = receivedValue;};</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62212983-703A-4DF7-B696-49FBBE823C13}">
   <dimension ref="B6:I132"/>
   <sheetViews>
@@ -10171,7 +10621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D04800-90A5-4DC8-96F5-561FF07F53A9}">
   <dimension ref="C5:L21"/>
   <sheetViews>
@@ -10583,16 +11033,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450D27FE-F79E-49BB-8D9E-631FCD809E99}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>